--- a/Week4/W4D2.xlsx
+++ b/Week4/W4D2.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="252" documentId="8_{5A921070-558D-4CBA-B103-FB16EC80E63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89B92DA9-6590-4D34-AD3C-496E380B6281}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB92F8D3-3552-4050-B6E7-F0E0E43CBF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
   </bookViews>
   <sheets>
     <sheet name="Esercizio 1" sheetId="1" r:id="rId1"/>
     <sheet name="Esercizio 2" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Esercizio 2'!$I$1:$I$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
   <si>
     <t>Amministrazione</t>
   </si>
@@ -185,18 +188,9 @@
     <t xml:space="preserve">Bonus una tantum </t>
   </si>
   <si>
-    <t>Totale incentivo per settore Produzione e età inferiore a 36 anni</t>
-  </si>
-  <si>
-    <t>Media incentivo per settore Produzione e età inferiore a 36 anni</t>
-  </si>
-  <si>
     <t>Totale incentivo (utilizzando $)</t>
   </si>
   <si>
-    <t>Arrotonda</t>
-  </si>
-  <si>
     <t>Totale</t>
   </si>
   <si>
@@ -207,6 +201,45 @@
   </si>
   <si>
     <t>Anz_fine_rapporto</t>
+  </si>
+  <si>
+    <t>N_dipendenti</t>
+  </si>
+  <si>
+    <t>Totale_incentivo</t>
+  </si>
+  <si>
+    <t>Media_incentivo</t>
+  </si>
+  <si>
+    <t>Media_sotto36</t>
+  </si>
+  <si>
+    <t>Totale_sotto36</t>
+  </si>
+  <si>
+    <t>Utilizzando</t>
+  </si>
+  <si>
+    <t>CONTA.SE</t>
+  </si>
+  <si>
+    <t>SOMMA.SE</t>
+  </si>
+  <si>
+    <t>MEDIA.SE</t>
+  </si>
+  <si>
+    <t>SOMMA.PIÙ.SE</t>
+  </si>
+  <si>
+    <t>MEDIA.PIÙ.SE</t>
+  </si>
+  <si>
+    <t>Totale_sopra36</t>
+  </si>
+  <si>
+    <t>Media_sopra36</t>
   </si>
 </sst>
 </file>
@@ -298,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -334,13 +367,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -375,7 +421,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,6 +433,11 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Euro" xfId="1" xr:uid="{05E7F11F-6F36-4D5E-B619-68835A6DDD65}"/>
@@ -523,13 +573,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -931,9 +981,9 @@
   </sheetPr>
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,20 +1037,20 @@
       <c r="K1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="31" t="s">
         <v>48</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1043,22 +1093,22 @@
         <f>IF(OR(D2="Direzione",D2="Commerciale"),100,0)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="31" cm="1">
+      <c r="L2" s="30" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">_xlfn.IFS(G2&gt;=10,100,D2="Produzione",100,AND(D2="Amministrazione",G2&gt;10),100,D2="Direzione",100,D2="Commerciale",100)</f>
         <v>100</v>
       </c>
-      <c r="M2" s="28">
-        <f ca="1">SUM(IF(G2&gt;=10,100,0),IF(D2="Produzione",100,0),IF(AND(D2="Amministrazione",G2&gt;10),100,0),IF(OR(D2="Direzione",D2="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N2" s="30">
+      <c r="M2" s="27">
+        <f t="shared" ref="M2:M29" ca="1" si="2">SUM(IF(G2&gt;=10,100,0),IF(D2="Produzione",100,0),IF(AND(D2="Amministrazione",G2&gt;10),100,0),IF(OR(D2="Direzione",D2="Commerciale"),100,0))</f>
+        <v>100</v>
+      </c>
+      <c r="N2" s="29">
         <f ca="1">M2/E2</f>
         <v>5.9665871121718374E-2</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="32">
         <v>44907</v>
       </c>
-      <c r="P2" s="34">
+      <c r="P2" s="33">
         <f>DATEDIF(C2,O2,"M")</f>
         <v>102</v>
       </c>
@@ -1088,38 +1138,38 @@
         <v>3</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" ref="H3:H29" ca="1" si="2">IF(G3&gt;=10,100,0)</f>
+        <f t="shared" ref="H3:H29" ca="1" si="3">IF(G3&gt;=10,100,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="19">
-        <f t="shared" ref="I3:I29" si="3">IF(D3="Produzione",100,0)</f>
+        <f t="shared" ref="I3:I29" si="4">IF(D3="Produzione",100,0)</f>
         <v>100</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" ref="J3:J29" ca="1" si="4">IF(AND(D3="Amministrazione",G3&gt;10),100,0)</f>
+        <f t="shared" ref="J3:J29" ca="1" si="5">IF(AND(D3="Amministrazione",G3&gt;10),100,0)</f>
         <v>0</v>
       </c>
       <c r="K3" s="19">
-        <f t="shared" ref="K3:K29" si="5">IF(OR(D3="Direzione",D3="Commerciale"),100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="31" cm="1">
+        <f t="shared" ref="K3:K29" si="6">IF(OR(D3="Direzione",D3="Commerciale"),100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="30" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">_xlfn.IFS(G3&gt;=10,100,D3="Produzione",100,AND(D3="Amministrazione",G3&gt;10),100,D3="Direzione",100,D3="Commerciale",100)</f>
         <v>100</v>
       </c>
-      <c r="M3" s="28">
-        <f ca="1">SUM(IF(G3&gt;=10,100,0),IF(D3="Produzione",100,0),IF(AND(D3="Amministrazione",G3&gt;10),100,0),IF(OR(D3="Direzione",D3="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N3" s="30">
-        <f t="shared" ref="N3:N29" ca="1" si="6">M3/E3</f>
+      <c r="M3" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="N3" s="29">
+        <f t="shared" ref="N3:N29" ca="1" si="7">M3/E3</f>
         <v>7.9872204472843447E-2</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="32">
         <v>44908</v>
       </c>
-      <c r="P3" s="34">
-        <f t="shared" ref="P3:P29" si="7">DATEDIF(C3,O3,"M")</f>
+      <c r="P3" s="33">
+        <f t="shared" ref="P3:P29" si="8">DATEDIF(C3,O3,"M")</f>
         <v>47</v>
       </c>
     </row>
@@ -1148,38 +1198,38 @@
         <v>14</v>
       </c>
       <c r="H4" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="K4" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="30" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">_xlfn.IFS(G4&gt;=10,100,D4="Produzione",100,AND(D4="Amministrazione",G4&gt;10),100,D4="Direzione",100,D4="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M4" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I4" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="K4" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="31" cm="1">
-        <f t="array" aca="1" ref="L4" ca="1">_xlfn.IFS(G4&gt;=10,100,D4="Produzione",100,AND(D4="Amministrazione",G4&gt;10),100,D4="Direzione",100,D4="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M4" s="28">
-        <f ca="1">SUM(IF(G4&gt;=10,100,0),IF(D4="Produzione",100,0),IF(AND(D4="Amministrazione",G4&gt;10),100,0),IF(OR(D4="Direzione",D4="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N4" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N4" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>0.12121212121212122</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="32">
         <v>44909</v>
       </c>
-      <c r="P4" s="34">
-        <f t="shared" si="7"/>
+      <c r="P4" s="33">
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
     </row>
@@ -1208,38 +1258,38 @@
         <v>2</v>
       </c>
       <c r="H5" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="30" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">_xlfn.IFS(G5&gt;=10,100,D5="Produzione",100,AND(D5="Amministrazione",G5&gt;10),100,D5="Direzione",100,D5="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M5" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J5" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="31" cm="1">
-        <f t="array" aca="1" ref="L5" ca="1">_xlfn.IFS(G5&gt;=10,100,D5="Produzione",100,AND(D5="Amministrazione",G5&gt;10),100,D5="Direzione",100,D5="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M5" s="28">
-        <f ca="1">SUM(IF(G5&gt;=10,100,0),IF(D5="Produzione",100,0),IF(AND(D5="Amministrazione",G5&gt;10),100,0),IF(OR(D5="Direzione",D5="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N5" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N5" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>0.08</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="32">
         <v>44910</v>
       </c>
-      <c r="P5" s="34">
-        <f t="shared" si="7"/>
+      <c r="P5" s="33">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
@@ -1268,38 +1318,38 @@
         <v>35</v>
       </c>
       <c r="H6" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L6" s="30" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">_xlfn.IFS(G6&gt;=10,100,D6="Produzione",100,AND(D6="Amministrazione",G6&gt;10),100,D6="Direzione",100,D6="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M6" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I6" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="L6" s="31" cm="1">
-        <f t="array" aca="1" ref="L6" ca="1">_xlfn.IFS(G6&gt;=10,100,D6="Produzione",100,AND(D6="Amministrazione",G6&gt;10),100,D6="Direzione",100,D6="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M6" s="28">
-        <f ca="1">SUM(IF(G6&gt;=10,100,0),IF(D6="Produzione",100,0),IF(AND(D6="Amministrazione",G6&gt;10),100,0),IF(OR(D6="Direzione",D6="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N6" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N6" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>5.434782608695652E-2</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="32">
         <v>44911</v>
       </c>
-      <c r="P6" s="34">
-        <f t="shared" si="7"/>
+      <c r="P6" s="33">
+        <f t="shared" si="8"/>
         <v>428</v>
       </c>
     </row>
@@ -1328,38 +1378,38 @@
         <v>12</v>
       </c>
       <c r="H7" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="30" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">_xlfn.IFS(G7&gt;=10,100,D7="Produzione",100,AND(D7="Amministrazione",G7&gt;10),100,D7="Direzione",100,D7="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M7" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I7" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J7" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="31" cm="1">
-        <f t="array" aca="1" ref="L7" ca="1">_xlfn.IFS(G7&gt;=10,100,D7="Produzione",100,AND(D7="Amministrazione",G7&gt;10),100,D7="Direzione",100,D7="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M7" s="28">
-        <f ca="1">SUM(IF(G7&gt;=10,100,0),IF(D7="Produzione",100,0),IF(AND(D7="Amministrazione",G7&gt;10),100,0),IF(OR(D7="Direzione",D7="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N7" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N7" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>0.12322858903265557</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="32">
         <v>44912</v>
       </c>
-      <c r="P7" s="34">
-        <f t="shared" si="7"/>
+      <c r="P7" s="33">
+        <f t="shared" si="8"/>
         <v>151</v>
       </c>
     </row>
@@ -1388,38 +1438,38 @@
         <v>11</v>
       </c>
       <c r="H8" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L8" s="30" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">_xlfn.IFS(G8&gt;=10,100,D8="Produzione",100,AND(D8="Amministrazione",G8&gt;10),100,D8="Direzione",100,D8="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M8" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I8" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="L8" s="31" cm="1">
-        <f t="array" aca="1" ref="L8" ca="1">_xlfn.IFS(G8&gt;=10,100,D8="Produzione",100,AND(D8="Amministrazione",G8&gt;10),100,D8="Direzione",100,D8="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M8" s="28">
-        <f ca="1">SUM(IF(G8&gt;=10,100,0),IF(D8="Produzione",100,0),IF(AND(D8="Amministrazione",G8&gt;10),100,0),IF(OR(D8="Direzione",D8="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N8" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N8" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>7.7399380804953566E-2</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="32">
         <v>44913</v>
       </c>
-      <c r="P8" s="34">
-        <f t="shared" si="7"/>
+      <c r="P8" s="33">
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
     </row>
@@ -1448,41 +1498,41 @@
         <v>5</v>
       </c>
       <c r="H9" s="19">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J9" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K9" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="31" t="e" cm="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="30" t="e" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">_xlfn.IFS(G9&gt;=10,100,D9="Produzione",100,AND(D9="Amministrazione",G9&gt;10),100,D9="Direzione",100,D9="Commerciale",100)</f>
         <v>#N/A</v>
       </c>
-      <c r="M9" s="28">
-        <f ca="1">SUM(IF(G9&gt;=10,100,0),IF(D9="Produzione",100,0),IF(AND(D9="Amministrazione",G9&gt;10),100,0),IF(OR(D9="Direzione",D9="Commerciale"),100,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="30">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
+      <c r="M9" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="29">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="32">
         <v>44926</v>
       </c>
-      <c r="P9" s="34">
-        <f t="shared" si="7"/>
+      <c r="P9" s="33">
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
-      <c r="Q9" s="27"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1509,38 +1559,38 @@
         <v>26</v>
       </c>
       <c r="H10" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="30" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">_xlfn.IFS(G10&gt;=10,100,D10="Produzione",100,AND(D10="Amministrazione",G10&gt;10),100,D10="Direzione",100,D10="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M10" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I10" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J10" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="31" cm="1">
-        <f t="array" aca="1" ref="L10" ca="1">_xlfn.IFS(G10&gt;=10,100,D10="Produzione",100,AND(D10="Amministrazione",G10&gt;10),100,D10="Direzione",100,D10="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M10" s="28">
-        <f ca="1">SUM(IF(G10&gt;=10,100,0),IF(D10="Produzione",100,0),IF(AND(D10="Amministrazione",G10&gt;10),100,0),IF(OR(D10="Direzione",D10="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N10" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N10" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="32">
         <v>44926</v>
       </c>
-      <c r="P10" s="34">
-        <f t="shared" si="7"/>
+      <c r="P10" s="33">
+        <f t="shared" si="8"/>
         <v>315</v>
       </c>
     </row>
@@ -1569,38 +1619,38 @@
         <v>9</v>
       </c>
       <c r="H11" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="30" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">_xlfn.IFS(G11&gt;=10,100,D11="Produzione",100,AND(D11="Amministrazione",G11&gt;10),100,D11="Direzione",100,D11="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M11" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J11" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="31" cm="1">
-        <f t="array" aca="1" ref="L11" ca="1">_xlfn.IFS(G11&gt;=10,100,D11="Produzione",100,AND(D11="Amministrazione",G11&gt;10),100,D11="Direzione",100,D11="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M11" s="28">
-        <f ca="1">SUM(IF(G11&gt;=10,100,0),IF(D11="Produzione",100,0),IF(AND(D11="Amministrazione",G11&gt;10),100,0),IF(OR(D11="Direzione",D11="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N11" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N11" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>6.7750677506775062E-2</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="32">
         <v>44926</v>
       </c>
-      <c r="P11" s="34">
-        <f t="shared" si="7"/>
+      <c r="P11" s="33">
+        <f t="shared" si="8"/>
         <v>119</v>
       </c>
     </row>
@@ -1629,38 +1679,38 @@
         <v>32</v>
       </c>
       <c r="H12" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L12" s="30" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">_xlfn.IFS(G12&gt;=10,100,D12="Produzione",100,AND(D12="Amministrazione",G12&gt;10),100,D12="Direzione",100,D12="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M12" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I12" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="L12" s="31" cm="1">
-        <f t="array" aca="1" ref="L12" ca="1">_xlfn.IFS(G12&gt;=10,100,D12="Produzione",100,AND(D12="Amministrazione",G12&gt;10),100,D12="Direzione",100,D12="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M12" s="28">
-        <f ca="1">SUM(IF(G12&gt;=10,100,0),IF(D12="Produzione",100,0),IF(AND(D12="Amministrazione",G12&gt;10),100,0),IF(OR(D12="Direzione",D12="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N12" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N12" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>6.1031431187061336E-2</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="32">
         <v>44926</v>
       </c>
-      <c r="P12" s="34">
-        <f t="shared" si="7"/>
+      <c r="P12" s="33">
+        <f t="shared" si="8"/>
         <v>391</v>
       </c>
     </row>
@@ -1689,38 +1739,38 @@
         <v>23</v>
       </c>
       <c r="H13" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="30" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">_xlfn.IFS(G13&gt;=10,100,D13="Produzione",100,AND(D13="Amministrazione",G13&gt;10),100,D13="Direzione",100,D13="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M13" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I13" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J13" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="31" cm="1">
-        <f t="array" aca="1" ref="L13" ca="1">_xlfn.IFS(G13&gt;=10,100,D13="Produzione",100,AND(D13="Amministrazione",G13&gt;10),100,D13="Direzione",100,D13="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M13" s="28">
-        <f ca="1">SUM(IF(G13&gt;=10,100,0),IF(D13="Produzione",100,0),IF(AND(D13="Amministrazione",G13&gt;10),100,0),IF(OR(D13="Direzione",D13="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N13" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N13" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>0.11976047904191617</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="32">
         <v>44926</v>
       </c>
-      <c r="P13" s="34">
-        <f t="shared" si="7"/>
+      <c r="P13" s="33">
+        <f t="shared" si="8"/>
         <v>287</v>
       </c>
     </row>
@@ -1749,38 +1799,38 @@
         <v>5</v>
       </c>
       <c r="H14" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="30" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">_xlfn.IFS(G14&gt;=10,100,D14="Produzione",100,AND(D14="Amministrazione",G14&gt;10),100,D14="Direzione",100,D14="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M14" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J14" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="31" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1">_xlfn.IFS(G14&gt;=10,100,D14="Produzione",100,AND(D14="Amministrazione",G14&gt;10),100,D14="Direzione",100,D14="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M14" s="28">
-        <f ca="1">SUM(IF(G14&gt;=10,100,0),IF(D14="Produzione",100,0),IF(AND(D14="Amministrazione",G14&gt;10),100,0),IF(OR(D14="Direzione",D14="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N14" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N14" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>7.4626865671641784E-2</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="32">
         <v>44926</v>
       </c>
-      <c r="P14" s="34">
-        <f t="shared" si="7"/>
+      <c r="P14" s="33">
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
     </row>
@@ -1809,38 +1859,38 @@
         <v>22</v>
       </c>
       <c r="H15" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="30" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1">_xlfn.IFS(G15&gt;=10,100,D15="Produzione",100,AND(D15="Amministrazione",G15&gt;10),100,D15="Direzione",100,D15="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M15" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I15" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="K15" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="31" cm="1">
-        <f t="array" aca="1" ref="L15" ca="1">_xlfn.IFS(G15&gt;=10,100,D15="Produzione",100,AND(D15="Amministrazione",G15&gt;10),100,D15="Direzione",100,D15="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M15" s="28">
-        <f ca="1">SUM(IF(G15&gt;=10,100,0),IF(D15="Produzione",100,0),IF(AND(D15="Amministrazione",G15&gt;10),100,0),IF(OR(D15="Direzione",D15="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N15" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N15" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>0.12507817385866166</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="32">
         <v>44926</v>
       </c>
-      <c r="P15" s="34">
-        <f t="shared" si="7"/>
+      <c r="P15" s="33">
+        <f t="shared" si="8"/>
         <v>275</v>
       </c>
     </row>
@@ -1869,38 +1919,38 @@
         <v>6</v>
       </c>
       <c r="H16" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="30" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1">_xlfn.IFS(G16&gt;=10,100,D16="Produzione",100,AND(D16="Amministrazione",G16&gt;10),100,D16="Direzione",100,D16="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M16" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J16" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="31" cm="1">
-        <f t="array" aca="1" ref="L16" ca="1">_xlfn.IFS(G16&gt;=10,100,D16="Produzione",100,AND(D16="Amministrazione",G16&gt;10),100,D16="Direzione",100,D16="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M16" s="28">
-        <f ca="1">SUM(IF(G16&gt;=10,100,0),IF(D16="Produzione",100,0),IF(AND(D16="Amministrazione",G16&gt;10),100,0),IF(OR(D16="Direzione",D16="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N16" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N16" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>7.0721357850070721E-2</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="32">
         <v>44910</v>
       </c>
-      <c r="P16" s="34">
-        <f t="shared" si="7"/>
+      <c r="P16" s="33">
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
     </row>
@@ -1929,38 +1979,38 @@
         <v>11</v>
       </c>
       <c r="H17" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="30" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">_xlfn.IFS(G17&gt;=10,100,D17="Produzione",100,AND(D17="Amministrazione",G17&gt;10),100,D17="Direzione",100,D17="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M17" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I17" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="K17" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="31" cm="1">
-        <f t="array" aca="1" ref="L17" ca="1">_xlfn.IFS(G17&gt;=10,100,D17="Produzione",100,AND(D17="Amministrazione",G17&gt;10),100,D17="Direzione",100,D17="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M17" s="28">
-        <f ca="1">SUM(IF(G17&gt;=10,100,0),IF(D17="Produzione",100,0),IF(AND(D17="Amministrazione",G17&gt;10),100,0),IF(OR(D17="Direzione",D17="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N17" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N17" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>0.13012361743656473</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="32">
         <v>44910</v>
       </c>
-      <c r="P17" s="34">
-        <f t="shared" si="7"/>
+      <c r="P17" s="33">
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
     </row>
@@ -1989,38 +2039,38 @@
         <v>20</v>
       </c>
       <c r="H18" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="30" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1">_xlfn.IFS(G18&gt;=10,100,D18="Produzione",100,AND(D18="Amministrazione",G18&gt;10),100,D18="Direzione",100,D18="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M18" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I18" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J18" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="31" cm="1">
-        <f t="array" aca="1" ref="L18" ca="1">_xlfn.IFS(G18&gt;=10,100,D18="Produzione",100,AND(D18="Amministrazione",G18&gt;10),100,D18="Direzione",100,D18="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M18" s="28">
-        <f ca="1">SUM(IF(G18&gt;=10,100,0),IF(D18="Produzione",100,0),IF(AND(D18="Amministrazione",G18&gt;10),100,0),IF(OR(D18="Direzione",D18="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N18" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N18" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>9.2936802973977689E-2</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="32">
         <v>44910</v>
       </c>
-      <c r="P18" s="34">
-        <f t="shared" si="7"/>
+      <c r="P18" s="33">
+        <f t="shared" si="8"/>
         <v>251</v>
       </c>
     </row>
@@ -2049,38 +2099,38 @@
         <v>2</v>
       </c>
       <c r="H19" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="30" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1">_xlfn.IFS(G19&gt;=10,100,D19="Produzione",100,AND(D19="Amministrazione",G19&gt;10),100,D19="Direzione",100,D19="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M19" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J19" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="31" cm="1">
-        <f t="array" aca="1" ref="L19" ca="1">_xlfn.IFS(G19&gt;=10,100,D19="Produzione",100,AND(D19="Amministrazione",G19&gt;10),100,D19="Direzione",100,D19="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M19" s="28">
-        <f ca="1">SUM(IF(G19&gt;=10,100,0),IF(D19="Produzione",100,0),IF(AND(D19="Amministrazione",G19&gt;10),100,0),IF(OR(D19="Direzione",D19="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N19" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N19" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>0.08</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="32">
         <v>44910</v>
       </c>
-      <c r="P19" s="34">
-        <f t="shared" si="7"/>
+      <c r="P19" s="33">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
@@ -2109,38 +2159,38 @@
         <v>5</v>
       </c>
       <c r="H20" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J20" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="30" cm="1">
+        <f t="array" aca="1" ref="L20" ca="1">_xlfn.IFS(G20&gt;=10,100,D20="Produzione",100,AND(D20="Amministrazione",G20&gt;10),100,D20="Direzione",100,D20="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M20" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J20" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="31" cm="1">
-        <f t="array" aca="1" ref="L20" ca="1">_xlfn.IFS(G20&gt;=10,100,D20="Produzione",100,AND(D20="Amministrazione",G20&gt;10),100,D20="Direzione",100,D20="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M20" s="28">
-        <f ca="1">SUM(IF(G20&gt;=10,100,0),IF(D20="Produzione",100,0),IF(AND(D20="Amministrazione",G20&gt;10),100,0),IF(OR(D20="Direzione",D20="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N20" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N20" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>7.2992700729927001E-2</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="32">
         <v>44911</v>
       </c>
-      <c r="P20" s="34">
-        <f t="shared" si="7"/>
+      <c r="P20" s="33">
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
     </row>
@@ -2169,38 +2219,38 @@
         <v>4</v>
       </c>
       <c r="H21" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="30" cm="1">
+        <f t="array" aca="1" ref="L21" ca="1">_xlfn.IFS(G21&gt;=10,100,D21="Produzione",100,AND(D21="Amministrazione",G21&gt;10),100,D21="Direzione",100,D21="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M21" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J21" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="31" cm="1">
-        <f t="array" aca="1" ref="L21" ca="1">_xlfn.IFS(G21&gt;=10,100,D21="Produzione",100,AND(D21="Amministrazione",G21&gt;10),100,D21="Direzione",100,D21="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M21" s="28">
-        <f ca="1">SUM(IF(G21&gt;=10,100,0),IF(D21="Produzione",100,0),IF(AND(D21="Amministrazione",G21&gt;10),100,0),IF(OR(D21="Direzione",D21="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N21" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N21" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>7.6335877862595422E-2</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="32">
         <v>44912</v>
       </c>
-      <c r="P21" s="34">
-        <f t="shared" si="7"/>
+      <c r="P21" s="33">
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
@@ -2229,38 +2279,38 @@
         <v>2</v>
       </c>
       <c r="H22" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="30" cm="1">
+        <f t="array" aca="1" ref="L22" ca="1">_xlfn.IFS(G22&gt;=10,100,D22="Produzione",100,AND(D22="Amministrazione",G22&gt;10),100,D22="Direzione",100,D22="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M22" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J22" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="31" cm="1">
-        <f t="array" aca="1" ref="L22" ca="1">_xlfn.IFS(G22&gt;=10,100,D22="Produzione",100,AND(D22="Amministrazione",G22&gt;10),100,D22="Direzione",100,D22="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M22" s="28">
-        <f ca="1">SUM(IF(G22&gt;=10,100,0),IF(D22="Produzione",100,0),IF(AND(D22="Amministrazione",G22&gt;10),100,0),IF(OR(D22="Direzione",D22="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N22" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N22" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>8.1300813008130079E-2</v>
       </c>
-      <c r="O22" s="33">
+      <c r="O22" s="32">
         <v>44913</v>
       </c>
-      <c r="P22" s="34">
-        <f t="shared" si="7"/>
+      <c r="P22" s="33">
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
     </row>
@@ -2289,38 +2339,38 @@
         <v>14</v>
       </c>
       <c r="H23" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="19">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L23" s="30" cm="1">
+        <f t="array" aca="1" ref="L23" ca="1">_xlfn.IFS(G23&gt;=10,100,D23="Produzione",100,AND(D23="Amministrazione",G23&gt;10),100,D23="Direzione",100,D23="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M23" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I23" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="19">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="L23" s="31" cm="1">
-        <f t="array" aca="1" ref="L23" ca="1">_xlfn.IFS(G23&gt;=10,100,D23="Produzione",100,AND(D23="Amministrazione",G23&gt;10),100,D23="Direzione",100,D23="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M23" s="28">
-        <f ca="1">SUM(IF(G23&gt;=10,100,0),IF(D23="Produzione",100,0),IF(AND(D23="Amministrazione",G23&gt;10),100,0),IF(OR(D23="Direzione",D23="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N23" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N23" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>7.2254335260115612E-2</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="32">
         <v>44914</v>
       </c>
-      <c r="P23" s="34">
-        <f t="shared" si="7"/>
+      <c r="P23" s="33">
+        <f t="shared" si="8"/>
         <v>179</v>
       </c>
     </row>
@@ -2349,38 +2399,38 @@
         <v>15</v>
       </c>
       <c r="H24" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I24" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="19">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="L24" s="30" cm="1">
+        <f t="array" aca="1" ref="L24" ca="1">_xlfn.IFS(G24&gt;=10,100,D24="Produzione",100,AND(D24="Amministrazione",G24&gt;10),100,D24="Direzione",100,D24="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M24" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I24" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="19">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="L24" s="31" cm="1">
-        <f t="array" aca="1" ref="L24" ca="1">_xlfn.IFS(G24&gt;=10,100,D24="Produzione",100,AND(D24="Amministrazione",G24&gt;10),100,D24="Direzione",100,D24="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M24" s="28">
-        <f ca="1">SUM(IF(G24&gt;=10,100,0),IF(D24="Produzione",100,0),IF(AND(D24="Amministrazione",G24&gt;10),100,0),IF(OR(D24="Direzione",D24="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N24" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N24" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>8.7912087912087919E-2</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="32">
         <v>44915</v>
       </c>
-      <c r="P24" s="34">
-        <f t="shared" si="7"/>
+      <c r="P24" s="33">
+        <f t="shared" si="8"/>
         <v>191</v>
       </c>
     </row>
@@ -2409,38 +2459,38 @@
         <v>5</v>
       </c>
       <c r="H25" s="19">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J25" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K25" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="31" t="e" cm="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="30" t="e" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">_xlfn.IFS(G25&gt;=10,100,D25="Produzione",100,AND(D25="Amministrazione",G25&gt;10),100,D25="Direzione",100,D25="Commerciale",100)</f>
         <v>#N/A</v>
       </c>
-      <c r="M25" s="28">
-        <f ca="1">SUM(IF(G25&gt;=10,100,0),IF(D25="Produzione",100,0),IF(AND(D25="Amministrazione",G25&gt;10),100,0),IF(OR(D25="Direzione",D25="Commerciale"),100,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="30">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="33">
+      <c r="M25" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="29">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="32">
         <v>44926</v>
       </c>
-      <c r="P25" s="34">
-        <f t="shared" si="7"/>
+      <c r="P25" s="33">
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
     </row>
@@ -2469,38 +2519,38 @@
         <v>9</v>
       </c>
       <c r="H26" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J26" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="30" cm="1">
+        <f t="array" aca="1" ref="L26" ca="1">_xlfn.IFS(G26&gt;=10,100,D26="Produzione",100,AND(D26="Amministrazione",G26&gt;10),100,D26="Direzione",100,D26="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M26" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J26" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="31" cm="1">
-        <f t="array" aca="1" ref="L26" ca="1">_xlfn.IFS(G26&gt;=10,100,D26="Produzione",100,AND(D26="Amministrazione",G26&gt;10),100,D26="Direzione",100,D26="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M26" s="28">
-        <f ca="1">SUM(IF(G26&gt;=10,100,0),IF(D26="Produzione",100,0),IF(AND(D26="Amministrazione",G26&gt;10),100,0),IF(OR(D26="Direzione",D26="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N26" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N26" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>7.0721357850070721E-2</v>
       </c>
-      <c r="O26" s="33">
+      <c r="O26" s="32">
         <v>44910</v>
       </c>
-      <c r="P26" s="34">
-        <f t="shared" si="7"/>
+      <c r="P26" s="33">
+        <f t="shared" si="8"/>
         <v>119</v>
       </c>
     </row>
@@ -2529,38 +2579,38 @@
         <v>8</v>
       </c>
       <c r="H27" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="30" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1">_xlfn.IFS(G27&gt;=10,100,D27="Produzione",100,AND(D27="Amministrazione",G27&gt;10),100,D27="Direzione",100,D27="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M27" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J27" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="31" cm="1">
-        <f t="array" aca="1" ref="L27" ca="1">_xlfn.IFS(G27&gt;=10,100,D27="Produzione",100,AND(D27="Amministrazione",G27&gt;10),100,D27="Direzione",100,D27="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M27" s="28">
-        <f ca="1">SUM(IF(G27&gt;=10,100,0),IF(D27="Produzione",100,0),IF(AND(D27="Amministrazione",G27&gt;10),100,0),IF(OR(D27="Direzione",D27="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N27" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N27" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>7.0721357850070721E-2</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="32">
         <v>44911</v>
       </c>
-      <c r="P27" s="34">
-        <f t="shared" si="7"/>
+      <c r="P27" s="33">
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
     </row>
@@ -2589,38 +2639,38 @@
         <v>11</v>
       </c>
       <c r="H28" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="30" cm="1">
+        <f t="array" aca="1" ref="L28" ca="1">_xlfn.IFS(G28&gt;=10,100,D28="Produzione",100,AND(D28="Amministrazione",G28&gt;10),100,D28="Direzione",100,D28="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M28" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I28" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J28" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="31" cm="1">
-        <f t="array" aca="1" ref="L28" ca="1">_xlfn.IFS(G28&gt;=10,100,D28="Produzione",100,AND(D28="Amministrazione",G28&gt;10),100,D28="Direzione",100,D28="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M28" s="28">
-        <f ca="1">SUM(IF(G28&gt;=10,100,0),IF(D28="Produzione",100,0),IF(AND(D28="Amministrazione",G28&gt;10),100,0),IF(OR(D28="Direzione",D28="Commerciale"),100,0))</f>
         <v>200</v>
       </c>
-      <c r="N28" s="30">
-        <f t="shared" ca="1" si="6"/>
+      <c r="N28" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>0.13550135501355012</v>
       </c>
-      <c r="O28" s="33">
+      <c r="O28" s="32">
         <v>44912</v>
       </c>
-      <c r="P28" s="34">
-        <f t="shared" si="7"/>
+      <c r="P28" s="33">
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
     </row>
@@ -2649,38 +2699,38 @@
         <v>4</v>
       </c>
       <c r="H29" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J29" s="19">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="30" cm="1">
+        <f t="array" aca="1" ref="L29" ca="1">_xlfn.IFS(G29&gt;=10,100,D29="Produzione",100,AND(D29="Amministrazione",G29&gt;10),100,D29="Direzione",100,D29="Commerciale",100)</f>
+        <v>100</v>
+      </c>
+      <c r="M29" s="27">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="19">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J29" s="19">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="31" cm="1">
-        <f t="array" aca="1" ref="L29" ca="1">_xlfn.IFS(G29&gt;=10,100,D29="Produzione",100,AND(D29="Amministrazione",G29&gt;10),100,D29="Direzione",100,D29="Commerciale",100)</f>
-        <v>100</v>
-      </c>
-      <c r="M29" s="28">
-        <f ca="1">SUM(IF(G29&gt;=10,100,0),IF(D29="Produzione",100,0),IF(AND(D29="Amministrazione",G29&gt;10),100,0),IF(OR(D29="Direzione",D29="Commerciale"),100,0))</f>
-        <v>100</v>
-      </c>
-      <c r="N29" s="30">
-        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="N29" s="29">
+        <f t="shared" ca="1" si="7"/>
         <v>7.874015748031496E-2</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="32">
         <v>44913</v>
       </c>
-      <c r="P29" s="34">
-        <f t="shared" si="7"/>
+      <c r="P29" s="33">
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
     </row>
@@ -2697,30 +2747,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CDE48C-5938-4FD6-964B-0AAAF5D6BC60}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="1" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="5.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.77734375" customWidth="1"/>
+    <col min="7" max="9" width="13.77734375" customWidth="1"/>
     <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
@@ -2748,17 +2791,11 @@
       <c r="I1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -2790,20 +2827,12 @@
         <f t="array" ref="I2">_xlfn.IFS(D2="Produzione",50,D2="Amministrazione",70,OR(D2="Direzione",D2="Commerciale"),90)</f>
         <v>50</v>
       </c>
-      <c r="J2" s="24">
-        <f ca="1">SUM(H2,I2,$M$10)</f>
+      <c r="J2" s="36">
+        <f ca="1">SUM(H2,I2,$K$10)</f>
         <v>150</v>
       </c>
-      <c r="K2" s="24">
-        <f ca="1">SUMIFS(J2:J29,D2:D29,"produzione",F2:F29,"&lt;36")</f>
-        <v>1900</v>
-      </c>
-      <c r="L2" s="26">
-        <f ca="1">AVERAGEIFS(J2:J29,D2:D29,"produzione",F2:F29,"&lt;36")</f>
-        <v>158.33333333333334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2835,12 +2864,12 @@
         <f t="array" ref="I3">_xlfn.IFS(D3="Produzione",50,D3="Amministrazione",70,OR(D3="Direzione",D3="Commerciale"),90)</f>
         <v>50</v>
       </c>
-      <c r="J3" s="24">
-        <f t="shared" ref="J3:J29" ca="1" si="1">SUM(H3,I3,$M$10)</f>
+      <c r="J3" s="36">
+        <f t="shared" ref="J3:J29" ca="1" si="1">SUM(H3,I3,$K$10)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2872,15 +2901,12 @@
         <f t="array" ref="I4">_xlfn.IFS(D4="Produzione",50,D4="Amministrazione",70,OR(D4="Direzione",D4="Commerciale"),90)</f>
         <v>70</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>270</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2912,16 +2938,12 @@
         <f t="array" ref="I5">_xlfn.IFS(D5="Produzione",50,D5="Amministrazione",70,OR(D5="Direzione",D5="Commerciale"),90)</f>
         <v>50</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="36">
         <f t="shared" ca="1" si="1"/>
         <v>150</v>
       </c>
-      <c r="L5" s="25">
-        <f ca="1">ROUND(L2,2)</f>
-        <v>158.33000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2958,7 +2980,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2995,7 +3017,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -3032,7 +3054,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -3068,11 +3090,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>170</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="K9" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3108,11 +3130,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>350</v>
       </c>
-      <c r="M10" s="24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3149,7 +3171,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -3186,7 +3208,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3223,7 +3245,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -3260,7 +3282,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3297,7 +3319,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3813,6 +3835,187 @@
       <c r="J29" s="24">
         <f t="shared" ca="1" si="1"/>
         <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="25">
+        <f>COUNTIF($D$2:$D$29,B34)</f>
+        <v>18</v>
+      </c>
+      <c r="C35" s="25">
+        <f t="shared" ref="C35:E35" si="2">COUNTIF($D$2:$D$29,C34)</f>
+        <v>5</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="24">
+        <f ca="1">SUMIF($D$2:$D$29,B34,$J$2:$J$29)</f>
+        <v>3500</v>
+      </c>
+      <c r="C36" s="24">
+        <f t="shared" ref="C36:E36" ca="1" si="3">SUMIF($D$2:$D$29,C34,$J$2:$J$29)</f>
+        <v>1250</v>
+      </c>
+      <c r="D36" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>870</v>
+      </c>
+      <c r="E36" s="24">
+        <f t="shared" ca="1" si="3"/>
+        <v>780</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="24">
+        <f ca="1">AVERAGEIF($D$2:$D$29,B34,$J$2:$J$29)</f>
+        <v>194.44444444444446</v>
+      </c>
+      <c r="C37" s="24">
+        <f t="shared" ref="C37:E37" ca="1" si="4">AVERAGEIF($D$2:$D$29,C34,$J$2:$J$29)</f>
+        <v>250</v>
+      </c>
+      <c r="D37" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="E37" s="24">
+        <f t="shared" ca="1" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="24">
+        <f ca="1">SUMIFS(J2:J29,D2:D29,"produzione",F2:F29,"&lt;36")</f>
+        <v>1900</v>
+      </c>
+      <c r="C38" s="24">
+        <f ca="1">SUMIFS(J2:J29,D2:D29,"Amministrazione",F2:F29,"&lt;36")</f>
+        <v>610</v>
+      </c>
+      <c r="D38" s="24">
+        <f ca="1">SUMIFS(J2:J29,D2:D29,"Commerciale",F2:F29,"&lt;36")</f>
+        <v>290</v>
+      </c>
+      <c r="E38" s="24">
+        <f ca="1">SUMIFS(J2:J29,D2:D29,"Direzione",F2:F29,"&lt;36")</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="24">
+        <f ca="1">AVERAGEIFS(J2:J29,D2:D29,"produzione",F2:F29,"&lt;36")</f>
+        <v>158.33333333333334</v>
+      </c>
+      <c r="C39" s="24">
+        <f ca="1">AVERAGEIFS(J2:J29,D2:D29,"Amministrazione",F2:F29,"&lt;36")</f>
+        <v>203.33333333333334</v>
+      </c>
+      <c r="D39" s="24">
+        <f ca="1">AVERAGEIFS(J2:J29,D2:D29,"Commerciale",F2:F29,"&lt;36")</f>
+        <v>290</v>
+      </c>
+      <c r="E39" s="24">
+        <f ca="1">SUMIFS(J3:J30,D3:D30,"Direzione",F3:F30,"&lt;36")</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="24">
+        <f ca="1">SUMIFS(J4:J31,D4:D31,"produzione",F4:F31,"&gt;36")</f>
+        <v>1300</v>
+      </c>
+      <c r="C40" s="24">
+        <f ca="1">SUMIFS(J4:J31,D4:D31,"Amministrazione",F4:F31,"&gt;36")</f>
+        <v>640</v>
+      </c>
+      <c r="D40" s="24">
+        <f ca="1">SUMIFS(J4:J31,D4:D31,"Commerciale",F4:F31,"&gt;36")</f>
+        <v>580</v>
+      </c>
+      <c r="E40" s="24">
+        <f ca="1">SUMIFS(J4:J31,D4:D31,"Direzione",F4:F31,"&gt;36")</f>
+        <v>780</v>
+      </c>
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="24">
+        <f ca="1">AVERAGEIFS(J4:J31,D4:D31,"produzione",F4:F31,"&gt;36")</f>
+        <v>325</v>
+      </c>
+      <c r="C41" s="24">
+        <f ca="1">AVERAGEIFS(J4:J31,D4:D31,"Amministrazione",F4:F31,"&gt;36")</f>
+        <v>320</v>
+      </c>
+      <c r="D41" s="24">
+        <f ca="1">AVERAGEIFS(J4:J31,D4:D31,"Commerciale",F4:F31,"&gt;36")</f>
+        <v>290</v>
+      </c>
+      <c r="E41" s="24">
+        <f ca="1">SUMIFS(J5:J32,D5:D32,"Direzione",F5:F32,"&gt;36")</f>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
